--- a/PL_MDStats.xlsx
+++ b/PL_MDStats.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6297" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6492" uniqueCount="435">
   <si>
     <t>Div</t>
   </si>
@@ -63566,7 +63566,9 @@
       <c r="AI567" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ567" s="10"/>
+      <c r="AJ567" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="14" t="s">
@@ -63670,7 +63672,9 @@
       <c r="AI568" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ568" s="10"/>
+      <c r="AJ568" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="14" t="s">
@@ -63774,7 +63778,9 @@
       <c r="AI569" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ569" s="10"/>
+      <c r="AJ569" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="14" t="s">
@@ -63878,7 +63884,9 @@
       <c r="AI570" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ570" s="10"/>
+      <c r="AJ570" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="14" t="s">
@@ -63982,7 +63990,9 @@
       <c r="AI571" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ571" s="10"/>
+      <c r="AJ571" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="14" t="s">
@@ -64086,7 +64096,9 @@
       <c r="AI572" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ572" s="10"/>
+      <c r="AJ572" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="14" t="s">
@@ -64190,7 +64202,9 @@
       <c r="AI573" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ573" s="10"/>
+      <c r="AJ573" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="14" t="s">
@@ -64294,7 +64308,9 @@
       <c r="AI574" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ574" s="10"/>
+      <c r="AJ574" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="14" t="s">
@@ -64398,7 +64414,9 @@
       <c r="AI575" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ575" s="10"/>
+      <c r="AJ575" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="14" t="s">
@@ -64502,7 +64520,9 @@
       <c r="AI576" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ576" s="10"/>
+      <c r="AJ576" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="14" t="s">
@@ -64606,7 +64626,9 @@
       <c r="AI577" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ577" s="10"/>
+      <c r="AJ577" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="14" t="s">
@@ -64710,7 +64732,9 @@
       <c r="AI578" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ578" s="10"/>
+      <c r="AJ578" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="14" t="s">
@@ -64814,7 +64838,9 @@
       <c r="AI579" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ579" s="10"/>
+      <c r="AJ579" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="14" t="s">
@@ -64918,7 +64944,9 @@
       <c r="AI580" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ580" s="10"/>
+      <c r="AJ580" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="14" t="s">
@@ -65022,7 +65050,9 @@
       <c r="AI581" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ581" s="10"/>
+      <c r="AJ581" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="14" t="s">
@@ -65126,7 +65156,9 @@
       <c r="AI582" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ582" s="10"/>
+      <c r="AJ582" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="14" t="s">
@@ -65230,7 +65262,9 @@
       <c r="AI583" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ583" s="10"/>
+      <c r="AJ583" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="14" t="s">
@@ -65334,7 +65368,9 @@
       <c r="AI584" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ584" s="10"/>
+      <c r="AJ584" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="14" t="s">
@@ -65438,7 +65474,9 @@
       <c r="AI585" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ585" s="10"/>
+      <c r="AJ585" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="14" t="s">
@@ -65542,7 +65580,9 @@
       <c r="AI586" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ586" s="10"/>
+      <c r="AJ586" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="14" t="s">
@@ -65646,7 +65686,9 @@
       <c r="AI587" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ587" s="10"/>
+      <c r="AJ587" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="14" t="s">
@@ -65750,7 +65792,9 @@
       <c r="AI588" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ588" s="10"/>
+      <c r="AJ588" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="14" t="s">
@@ -65854,7 +65898,9 @@
       <c r="AI589" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ589" s="10"/>
+      <c r="AJ589" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="14" t="s">
@@ -65958,7 +66004,9 @@
       <c r="AI590" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ590" s="10"/>
+      <c r="AJ590" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="14" t="s">
@@ -66062,7 +66110,9 @@
       <c r="AI591" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ591" s="10"/>
+      <c r="AJ591" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="14" t="s">
@@ -66166,7 +66216,9 @@
       <c r="AI592" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ592" s="10"/>
+      <c r="AJ592" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="14" t="s">
@@ -66270,7 +66322,9 @@
       <c r="AI593" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ593" s="10"/>
+      <c r="AJ593" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="14" t="s">
@@ -66374,7 +66428,9 @@
       <c r="AI594" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ594" s="10"/>
+      <c r="AJ594" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="14" t="s">
@@ -66478,7 +66534,9 @@
       <c r="AI595" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ595" s="10"/>
+      <c r="AJ595" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="14" t="s">
@@ -66582,7 +66640,9 @@
       <c r="AI596" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ596" s="10"/>
+      <c r="AJ596" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="14" t="s">
@@ -66686,7 +66746,9 @@
       <c r="AI597" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ597" s="10"/>
+      <c r="AJ597" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="14" t="s">
@@ -66790,7 +66852,9 @@
       <c r="AI598" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ598" s="10"/>
+      <c r="AJ598" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="14" t="s">
@@ -66894,7 +66958,9 @@
       <c r="AI599" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ599" s="10"/>
+      <c r="AJ599" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="14" t="s">
@@ -66998,7 +67064,9 @@
       <c r="AI600" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ600" s="10"/>
+      <c r="AJ600" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="14" t="s">
@@ -67102,7 +67170,9 @@
       <c r="AI601" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ601" s="10"/>
+      <c r="AJ601" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="14" t="s">
@@ -67206,7 +67276,9 @@
       <c r="AI602" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ602" s="10"/>
+      <c r="AJ602" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="14" t="s">
@@ -67310,7 +67382,9 @@
       <c r="AI603" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ603" s="10"/>
+      <c r="AJ603" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="14" t="s">
@@ -67414,7 +67488,9 @@
       <c r="AI604" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ604" s="10"/>
+      <c r="AJ604" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="14" t="s">
@@ -67518,7 +67594,9 @@
       <c r="AI605" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ605" s="10"/>
+      <c r="AJ605" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="14" t="s">
@@ -67622,7 +67700,9 @@
       <c r="AI606" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ606" s="10"/>
+      <c r="AJ606" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="14" t="s">
@@ -67726,7 +67806,9 @@
       <c r="AI607" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ607" s="10"/>
+      <c r="AJ607" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="14" t="s">
@@ -67830,7 +67912,9 @@
       <c r="AI608" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ608" s="10"/>
+      <c r="AJ608" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="14" t="s">
@@ -67934,7 +68018,9 @@
       <c r="AI609" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ609" s="10"/>
+      <c r="AJ609" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="14" t="s">
@@ -68038,7 +68124,9 @@
       <c r="AI610" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ610" s="10"/>
+      <c r="AJ610" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="14" t="s">
@@ -68142,7 +68230,9 @@
       <c r="AI611" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ611" s="10"/>
+      <c r="AJ611" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="14" t="s">
@@ -68246,7 +68336,9 @@
       <c r="AI612" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ612" s="10"/>
+      <c r="AJ612" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="14" t="s">
@@ -68350,7 +68442,9 @@
       <c r="AI613" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ613" s="10"/>
+      <c r="AJ613" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="14" t="s">
@@ -68454,7 +68548,9 @@
       <c r="AI614" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ614" s="10"/>
+      <c r="AJ614" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="14" t="s">
@@ -68558,7 +68654,9 @@
       <c r="AI615" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ615" s="10"/>
+      <c r="AJ615" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="14" t="s">
@@ -68662,7 +68760,9 @@
       <c r="AI616" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ616" s="10"/>
+      <c r="AJ616" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="14" t="s">
@@ -68766,7 +68866,9 @@
       <c r="AI617" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ617" s="10"/>
+      <c r="AJ617" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="14" t="s">
@@ -68870,7 +68972,9 @@
       <c r="AI618" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ618" s="10"/>
+      <c r="AJ618" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="14" t="s">
@@ -68974,7 +69078,9 @@
       <c r="AI619" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ619" s="10"/>
+      <c r="AJ619" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="14" t="s">
@@ -69078,7 +69184,9 @@
       <c r="AI620" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ620" s="10"/>
+      <c r="AJ620" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="14" t="s">
@@ -69182,7 +69290,9 @@
       <c r="AI621" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ621" s="10"/>
+      <c r="AJ621" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="14" t="s">
@@ -69286,7 +69396,9 @@
       <c r="AI622" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ622" s="10"/>
+      <c r="AJ622" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="14" t="s">
@@ -69390,7 +69502,9 @@
       <c r="AI623" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ623" s="10"/>
+      <c r="AJ623" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="14" t="s">
@@ -69494,7 +69608,9 @@
       <c r="AI624" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ624" s="10"/>
+      <c r="AJ624" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="14" t="s">
@@ -69598,7 +69714,9 @@
       <c r="AI625" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ625" s="10"/>
+      <c r="AJ625" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="14" t="s">
@@ -69702,7 +69820,9 @@
       <c r="AI626" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ626" s="10"/>
+      <c r="AJ626" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="14" t="s">
@@ -69806,7 +69926,9 @@
       <c r="AI627" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ627" s="10"/>
+      <c r="AJ627" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="14" t="s">
@@ -69910,7 +70032,9 @@
       <c r="AI628" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ628" s="10"/>
+      <c r="AJ628" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="14" t="s">
@@ -70014,7 +70138,9 @@
       <c r="AI629" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ629" s="10"/>
+      <c r="AJ629" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="14" t="s">
@@ -70118,7 +70244,9 @@
       <c r="AI630" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ630" s="10"/>
+      <c r="AJ630" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="14" t="s">
@@ -70222,7 +70350,9 @@
       <c r="AI631" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ631" s="10"/>
+      <c r="AJ631" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="14" t="s">
@@ -70326,7 +70456,9 @@
       <c r="AI632" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ632" s="10"/>
+      <c r="AJ632" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="14" t="s">
@@ -70430,7 +70562,9 @@
       <c r="AI633" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ633" s="10"/>
+      <c r="AJ633" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="14" t="s">
@@ -70534,7 +70668,9 @@
       <c r="AI634" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ634" s="10"/>
+      <c r="AJ634" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="14" t="s">
@@ -70638,7 +70774,9 @@
       <c r="AI635" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ635" s="10"/>
+      <c r="AJ635" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="14" t="s">
@@ -70742,7 +70880,9 @@
       <c r="AI636" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ636" s="10"/>
+      <c r="AJ636" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="14" t="s">
@@ -70846,7 +70986,9 @@
       <c r="AI637" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ637" s="10"/>
+      <c r="AJ637" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="14" t="s">
@@ -70950,7 +71092,9 @@
       <c r="AI638" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ638" s="10"/>
+      <c r="AJ638" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="14" t="s">
@@ -71054,7 +71198,9 @@
       <c r="AI639" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ639" s="10"/>
+      <c r="AJ639" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="14" t="s">
@@ -71158,7 +71304,9 @@
       <c r="AI640" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ640" s="10"/>
+      <c r="AJ640" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="14" t="s">
@@ -71262,7 +71410,9 @@
       <c r="AI641" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ641" s="10"/>
+      <c r="AJ641" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="14" t="s">
@@ -71366,7 +71516,9 @@
       <c r="AI642" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ642" s="10"/>
+      <c r="AJ642" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="14" t="s">
@@ -71470,7 +71622,9 @@
       <c r="AI643" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ643" s="10"/>
+      <c r="AJ643" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="14" t="s">
@@ -71574,7 +71728,9 @@
       <c r="AI644" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ644" s="10"/>
+      <c r="AJ644" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="14" t="s">
@@ -71678,7 +71834,9 @@
       <c r="AI645" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ645" s="10"/>
+      <c r="AJ645" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="14" t="s">
@@ -71782,7 +71940,9 @@
       <c r="AI646" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ646" s="10"/>
+      <c r="AJ646" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="14" t="s">
@@ -71886,7 +72046,9 @@
       <c r="AI647" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ647" s="10"/>
+      <c r="AJ647" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="14" t="s">
@@ -71990,7 +72152,9 @@
       <c r="AI648" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ648" s="10"/>
+      <c r="AJ648" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="14" t="s">
@@ -72094,7 +72258,9 @@
       <c r="AI649" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ649" s="10"/>
+      <c r="AJ649" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="14" t="s">
@@ -72198,7 +72364,9 @@
       <c r="AI650" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ650" s="10"/>
+      <c r="AJ650" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="14" t="s">
@@ -72302,7 +72470,9 @@
       <c r="AI651" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ651" s="10"/>
+      <c r="AJ651" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="14" t="s">
@@ -72406,7 +72576,9 @@
       <c r="AI652" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ652" s="10"/>
+      <c r="AJ652" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="14" t="s">
@@ -72510,7 +72682,9 @@
       <c r="AI653" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ653" s="10"/>
+      <c r="AJ653" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="14" t="s">
@@ -72614,7 +72788,9 @@
       <c r="AI654" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ654" s="10"/>
+      <c r="AJ654" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="14" t="s">
@@ -72718,7 +72894,9 @@
       <c r="AI655" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ655" s="10"/>
+      <c r="AJ655" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="14" t="s">
@@ -72822,7 +73000,9 @@
       <c r="AI656" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ656" s="10"/>
+      <c r="AJ656" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="14" t="s">
@@ -72926,7 +73106,9 @@
       <c r="AI657" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ657" s="10"/>
+      <c r="AJ657" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="14" t="s">
@@ -73030,7 +73212,9 @@
       <c r="AI658" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ658" s="10"/>
+      <c r="AJ658" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="14" t="s">
@@ -73134,7 +73318,9 @@
       <c r="AI659" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ659" s="10"/>
+      <c r="AJ659" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="14" t="s">
@@ -73238,7 +73424,9 @@
       <c r="AI660" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ660" s="10"/>
+      <c r="AJ660" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="14" t="s">
@@ -73342,7 +73530,9 @@
       <c r="AI661" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ661" s="10"/>
+      <c r="AJ661" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="14" t="s">
@@ -73446,7 +73636,9 @@
       <c r="AI662" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ662" s="10"/>
+      <c r="AJ662" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="14" t="s">
@@ -73550,7 +73742,9 @@
       <c r="AI663" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ663" s="10"/>
+      <c r="AJ663" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="14" t="s">
@@ -73654,7 +73848,9 @@
       <c r="AI664" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ664" s="10"/>
+      <c r="AJ664" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="14" t="s">
@@ -73758,7 +73954,9 @@
       <c r="AI665" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ665" s="10"/>
+      <c r="AJ665" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="14" t="s">
@@ -73862,7 +74060,9 @@
       <c r="AI666" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ666" s="10"/>
+      <c r="AJ666" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="14" t="s">
@@ -73966,7 +74166,9 @@
       <c r="AI667" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ667" s="10"/>
+      <c r="AJ667" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="14" t="s">
@@ -74070,7 +74272,9 @@
       <c r="AI668" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ668" s="10"/>
+      <c r="AJ668" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="14" t="s">
@@ -74174,7 +74378,9 @@
       <c r="AI669" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ669" s="10"/>
+      <c r="AJ669" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="14" t="s">
@@ -74278,7 +74484,9 @@
       <c r="AI670" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ670" s="10"/>
+      <c r="AJ670" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="14" t="s">
@@ -74382,7 +74590,9 @@
       <c r="AI671" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ671" s="10"/>
+      <c r="AJ671" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="14" t="s">
@@ -74486,7 +74696,9 @@
       <c r="AI672" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ672" s="10"/>
+      <c r="AJ672" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="14" t="s">
@@ -74590,7 +74802,9 @@
       <c r="AI673" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ673" s="10"/>
+      <c r="AJ673" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="14" t="s">
@@ -74694,7 +74908,9 @@
       <c r="AI674" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ674" s="10"/>
+      <c r="AJ674" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="14" t="s">
@@ -74798,7 +75014,9 @@
       <c r="AI675" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ675" s="10"/>
+      <c r="AJ675" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="14" t="s">
@@ -74902,7 +75120,9 @@
       <c r="AI676" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ676" s="10"/>
+      <c r="AJ676" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="14" t="s">
@@ -75006,7 +75226,9 @@
       <c r="AI677" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ677" s="10"/>
+      <c r="AJ677" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="14" t="s">
@@ -75110,7 +75332,9 @@
       <c r="AI678" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ678" s="10"/>
+      <c r="AJ678" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="14" t="s">
@@ -75214,7 +75438,9 @@
       <c r="AI679" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ679" s="10"/>
+      <c r="AJ679" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="14" t="s">
@@ -75318,7 +75544,9 @@
       <c r="AI680" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ680" s="10"/>
+      <c r="AJ680" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="14" t="s">
@@ -75422,7 +75650,9 @@
       <c r="AI681" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ681" s="10"/>
+      <c r="AJ681" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="14" t="s">
@@ -75526,7 +75756,9 @@
       <c r="AI682" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ682" s="10"/>
+      <c r="AJ682" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="14" t="s">
@@ -75630,7 +75862,9 @@
       <c r="AI683" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ683" s="10"/>
+      <c r="AJ683" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="14" t="s">
@@ -75734,7 +75968,9 @@
       <c r="AI684" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ684" s="10"/>
+      <c r="AJ684" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="14" t="s">
@@ -75838,7 +76074,9 @@
       <c r="AI685" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ685" s="10"/>
+      <c r="AJ685" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="14" t="s">
@@ -75942,7 +76180,9 @@
       <c r="AI686" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ686" s="10"/>
+      <c r="AJ686" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="14" t="s">
@@ -76046,7 +76286,9 @@
       <c r="AI687" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ687" s="10"/>
+      <c r="AJ687" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="14" t="s">
@@ -76150,7 +76392,9 @@
       <c r="AI688" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ688" s="10"/>
+      <c r="AJ688" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="14" t="s">
@@ -76254,7 +76498,9 @@
       <c r="AI689" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ689" s="10"/>
+      <c r="AJ689" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="14" t="s">
@@ -76358,7 +76604,9 @@
       <c r="AI690" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ690" s="10"/>
+      <c r="AJ690" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="14" t="s">
@@ -76462,7 +76710,9 @@
       <c r="AI691" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ691" s="10"/>
+      <c r="AJ691" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="14" t="s">
@@ -76566,7 +76816,9 @@
       <c r="AI692" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ692" s="10"/>
+      <c r="AJ692" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="14" t="s">
@@ -76670,7 +76922,9 @@
       <c r="AI693" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ693" s="10"/>
+      <c r="AJ693" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="14" t="s">
@@ -76774,7 +77028,9 @@
       <c r="AI694" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ694" s="10"/>
+      <c r="AJ694" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="14" t="s">
@@ -76878,7 +77134,9 @@
       <c r="AI695" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ695" s="10"/>
+      <c r="AJ695" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="14" t="s">
@@ -76982,7 +77240,9 @@
       <c r="AI696" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ696" s="10"/>
+      <c r="AJ696" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="14" t="s">
@@ -77086,7 +77346,9 @@
       <c r="AI697" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ697" s="10"/>
+      <c r="AJ697" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="14" t="s">
@@ -77190,7 +77452,9 @@
       <c r="AI698" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ698" s="10"/>
+      <c r="AJ698" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="14" t="s">
@@ -77294,7 +77558,9 @@
       <c r="AI699" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ699" s="10"/>
+      <c r="AJ699" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="14" t="s">
@@ -77398,7 +77664,9 @@
       <c r="AI700" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ700" s="10"/>
+      <c r="AJ700" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="14" t="s">
@@ -77502,7 +77770,9 @@
       <c r="AI701" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ701" s="10"/>
+      <c r="AJ701" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="14" t="s">
@@ -77606,7 +77876,9 @@
       <c r="AI702" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ702" s="10"/>
+      <c r="AJ702" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="14" t="s">
@@ -77710,7 +77982,9 @@
       <c r="AI703" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ703" s="10"/>
+      <c r="AJ703" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="14" t="s">
@@ -77814,7 +78088,9 @@
       <c r="AI704" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ704" s="10"/>
+      <c r="AJ704" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="14" t="s">
@@ -77918,7 +78194,9 @@
       <c r="AI705" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ705" s="10"/>
+      <c r="AJ705" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="14" t="s">
@@ -78022,7 +78300,9 @@
       <c r="AI706" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ706" s="10"/>
+      <c r="AJ706" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="14" t="s">
@@ -78126,7 +78406,9 @@
       <c r="AI707" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ707" s="10"/>
+      <c r="AJ707" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="14" t="s">
@@ -78230,7 +78512,9 @@
       <c r="AI708" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ708" s="10"/>
+      <c r="AJ708" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="14" t="s">
@@ -78334,7 +78618,9 @@
       <c r="AI709" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ709" s="10"/>
+      <c r="AJ709" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="14" t="s">
@@ -78438,7 +78724,9 @@
       <c r="AI710" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ710" s="10"/>
+      <c r="AJ710" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="14" t="s">
@@ -78542,7 +78830,9 @@
       <c r="AI711" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ711" s="10"/>
+      <c r="AJ711" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="14" t="s">
@@ -78646,7 +78936,9 @@
       <c r="AI712" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ712" s="10"/>
+      <c r="AJ712" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="14" t="s">
@@ -78750,7 +79042,9 @@
       <c r="AI713" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ713" s="10"/>
+      <c r="AJ713" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="14" t="s">
@@ -78854,7 +79148,9 @@
       <c r="AI714" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ714" s="10"/>
+      <c r="AJ714" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="14" t="s">
@@ -78958,7 +79254,9 @@
       <c r="AI715" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ715" s="10"/>
+      <c r="AJ715" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="14" t="s">
@@ -79062,7 +79360,9 @@
       <c r="AI716" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ716" s="10"/>
+      <c r="AJ716" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="14" t="s">
@@ -79166,7 +79466,9 @@
       <c r="AI717" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ717" s="10"/>
+      <c r="AJ717" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="14" t="s">
@@ -79270,7 +79572,9 @@
       <c r="AI718" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ718" s="10"/>
+      <c r="AJ718" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="14" t="s">
@@ -79374,7 +79678,9 @@
       <c r="AI719" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ719" s="10"/>
+      <c r="AJ719" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="14" t="s">
@@ -79461,7 +79767,7 @@
       <c r="AB720" s="10">
         <v>1.0</v>
       </c>
-      <c r="AC720" s="16">
+      <c r="AC720" s="10">
         <v>1.0</v>
       </c>
       <c r="AD720" s="11"/>
@@ -79478,7 +79784,9 @@
       <c r="AI720" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ720" s="10"/>
+      <c r="AJ720" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="14" t="s">
@@ -79556,16 +79864,16 @@
       <c r="Y721" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z721" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA721" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB721" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC721" s="16">
+      <c r="Z721" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA721" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB721" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC721" s="10">
         <v>1.0</v>
       </c>
       <c r="AD721" s="11"/>
@@ -79582,7 +79890,9 @@
       <c r="AI721" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ721" s="10"/>
+      <c r="AJ721" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="14" t="s">
@@ -79660,16 +79970,16 @@
       <c r="Y722" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z722" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA722" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB722" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC722" s="16">
+      <c r="Z722" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA722" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB722" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC722" s="10">
         <v>0.0</v>
       </c>
       <c r="AD722" s="11"/>
@@ -79686,7 +79996,9 @@
       <c r="AI722" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ722" s="10"/>
+      <c r="AJ722" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="14" t="s">
@@ -79764,16 +80076,16 @@
       <c r="Y723" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z723" s="16">
+      <c r="Z723" s="10">
         <v>4.0</v>
       </c>
-      <c r="AA723" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB723" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC723" s="16">
+      <c r="AA723" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB723" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC723" s="10">
         <v>0.0</v>
       </c>
       <c r="AD723" s="11"/>
@@ -79790,7 +80102,9 @@
       <c r="AI723" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ723" s="10"/>
+      <c r="AJ723" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="14" t="s">
@@ -79868,16 +80182,16 @@
       <c r="Y724" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z724" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA724" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB724" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AC724" s="16">
+      <c r="Z724" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA724" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB724" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC724" s="10">
         <v>0.0</v>
       </c>
       <c r="AD724" s="11"/>
@@ -79894,7 +80208,9 @@
       <c r="AI724" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ724" s="10"/>
+      <c r="AJ724" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="14" t="s">
@@ -79972,16 +80288,16 @@
       <c r="Y725" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z725" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA725" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB725" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC725" s="16">
+      <c r="Z725" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA725" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB725" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC725" s="10">
         <v>2.0</v>
       </c>
       <c r="AD725" s="11"/>
@@ -79998,7 +80314,9 @@
       <c r="AI725" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ725" s="10"/>
+      <c r="AJ725" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="14" t="s">
@@ -80076,16 +80394,16 @@
       <c r="Y726" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z726" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA726" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB726" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC726" s="16">
+      <c r="Z726" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA726" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB726" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC726" s="10">
         <v>1.0</v>
       </c>
       <c r="AD726" s="11"/>
@@ -80102,7 +80420,9 @@
       <c r="AI726" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ726" s="10"/>
+      <c r="AJ726" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="14" t="s">
@@ -80180,16 +80500,16 @@
       <c r="Y727" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z727" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA727" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB727" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC727" s="16">
+      <c r="Z727" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA727" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB727" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC727" s="10">
         <v>0.0</v>
       </c>
       <c r="AD727" s="11"/>
@@ -80206,7 +80526,9 @@
       <c r="AI727" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ727" s="10"/>
+      <c r="AJ727" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="14" t="s">
@@ -80284,16 +80606,16 @@
       <c r="Y728" s="14">
         <v>35.0</v>
       </c>
-      <c r="Z728" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA728" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB728" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC728" s="16">
+      <c r="Z728" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA728" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB728" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC728" s="10">
         <v>1.0</v>
       </c>
       <c r="AD728" s="11"/>
@@ -80310,7 +80632,9 @@
       <c r="AI728" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ728" s="10"/>
+      <c r="AJ728" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="14" t="s">
@@ -80388,16 +80712,16 @@
       <c r="Y729" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z729" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA729" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB729" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC729" s="16">
+      <c r="Z729" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA729" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB729" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC729" s="10">
         <v>1.0</v>
       </c>
       <c r="AD729" s="11"/>
@@ -80414,7 +80738,9 @@
       <c r="AI729" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ729" s="10"/>
+      <c r="AJ729" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="14" t="s">
@@ -80492,16 +80818,16 @@
       <c r="Y730" s="14">
         <v>32.0</v>
       </c>
-      <c r="Z730" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA730" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB730" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC730" s="16">
+      <c r="Z730" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA730" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB730" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC730" s="10">
         <v>0.0</v>
       </c>
       <c r="AD730" s="11"/>
@@ -80518,7 +80844,9 @@
       <c r="AI730" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ730" s="10"/>
+      <c r="AJ730" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="14" t="s">
@@ -80596,16 +80924,16 @@
       <c r="Y731" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z731" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA731" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB731" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC731" s="16">
+      <c r="Z731" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA731" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB731" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC731" s="10">
         <v>1.0</v>
       </c>
       <c r="AD731" s="11"/>
@@ -80622,7 +80950,9 @@
       <c r="AI731" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ731" s="10"/>
+      <c r="AJ731" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="14" t="s">
@@ -80700,16 +81030,16 @@
       <c r="Y732" s="14">
         <v>19.0</v>
       </c>
-      <c r="Z732" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA732" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB732" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AC732" s="16">
+      <c r="Z732" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA732" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB732" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC732" s="10">
         <v>0.0</v>
       </c>
       <c r="AD732" s="11"/>
@@ -80726,7 +81056,9 @@
       <c r="AI732" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ732" s="10"/>
+      <c r="AJ732" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="14" t="s">
@@ -80804,16 +81136,16 @@
       <c r="Y733" s="14">
         <v>34.0</v>
       </c>
-      <c r="Z733" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA733" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB733" s="16">
+      <c r="Z733" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA733" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB733" s="10">
         <v>6.0</v>
       </c>
-      <c r="AC733" s="16">
+      <c r="AC733" s="10">
         <v>4.0</v>
       </c>
       <c r="AD733" s="11"/>
@@ -80830,7 +81162,9 @@
       <c r="AI733" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ733" s="10"/>
+      <c r="AJ733" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="14" t="s">
@@ -80908,16 +81242,16 @@
       <c r="Y734" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z734" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA734" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB734" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC734" s="16">
+      <c r="Z734" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA734" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB734" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC734" s="10">
         <v>2.0</v>
       </c>
       <c r="AD734" s="11"/>
@@ -80934,7 +81268,9 @@
       <c r="AI734" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ734" s="10"/>
+      <c r="AJ734" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="14" t="s">
@@ -81012,16 +81348,16 @@
       <c r="Y735" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z735" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA735" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB735" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC735" s="16">
+      <c r="Z735" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA735" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB735" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC735" s="10">
         <v>2.0</v>
       </c>
       <c r="AD735" s="11"/>
@@ -81038,7 +81374,9 @@
       <c r="AI735" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ735" s="10"/>
+      <c r="AJ735" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="14" t="s">
@@ -81116,16 +81454,16 @@
       <c r="Y736" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z736" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA736" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB736" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC736" s="16">
+      <c r="Z736" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA736" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB736" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC736" s="10">
         <v>1.0</v>
       </c>
       <c r="AD736" s="11"/>
@@ -81142,7 +81480,9 @@
       <c r="AI736" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ736" s="10"/>
+      <c r="AJ736" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="14" t="s">
@@ -81220,16 +81560,16 @@
       <c r="Y737" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z737" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA737" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB737" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC737" s="16">
+      <c r="Z737" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA737" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB737" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC737" s="10">
         <v>0.0</v>
       </c>
       <c r="AD737" s="11"/>
@@ -81246,7 +81586,9 @@
       <c r="AI737" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ737" s="10"/>
+      <c r="AJ737" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="14" t="s">
@@ -81324,16 +81666,16 @@
       <c r="Y738" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z738" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA738" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB738" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC738" s="16">
+      <c r="Z738" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA738" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB738" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC738" s="10">
         <v>0.0</v>
       </c>
       <c r="AD738" s="11"/>
@@ -81350,7 +81692,9 @@
       <c r="AI738" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ738" s="10"/>
+      <c r="AJ738" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="14" t="s">
@@ -81428,16 +81772,16 @@
       <c r="Y739" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z739" s="16">
+      <c r="Z739" s="10">
         <v>5.0</v>
       </c>
-      <c r="AA739" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB739" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC739" s="16">
+      <c r="AA739" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB739" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC739" s="10">
         <v>0.0</v>
       </c>
       <c r="AD739" s="11"/>
@@ -81454,7 +81798,9 @@
       <c r="AI739" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ739" s="10"/>
+      <c r="AJ739" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="14" t="s">
@@ -81532,16 +81878,16 @@
       <c r="Y740" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z740" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA740" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB740" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC740" s="16">
+      <c r="Z740" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA740" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB740" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC740" s="10">
         <v>0.0</v>
       </c>
       <c r="AD740" s="11"/>
@@ -81558,7 +81904,9 @@
       <c r="AI740" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ740" s="10"/>
+      <c r="AJ740" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="14" t="s">
@@ -81636,16 +81984,16 @@
       <c r="Y741" s="14">
         <v>36.0</v>
       </c>
-      <c r="Z741" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA741" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB741" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC741" s="16">
+      <c r="Z741" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA741" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB741" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC741" s="10">
         <v>1.0</v>
       </c>
       <c r="AD741" s="11"/>
@@ -81662,7 +82010,9 @@
       <c r="AI741" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ741" s="10"/>
+      <c r="AJ741" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="14" t="s">
@@ -81740,16 +82090,16 @@
       <c r="Y742" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z742" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA742" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB742" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC742" s="16">
+      <c r="Z742" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA742" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB742" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC742" s="10">
         <v>1.0</v>
       </c>
       <c r="AD742" s="11"/>
@@ -81766,7 +82116,9 @@
       <c r="AI742" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ742" s="10"/>
+      <c r="AJ742" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="14" t="s">
@@ -81844,16 +82196,16 @@
       <c r="Y743" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z743" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA743" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB743" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC743" s="16">
+      <c r="Z743" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA743" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB743" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC743" s="10">
         <v>2.0</v>
       </c>
       <c r="AD743" s="11"/>
@@ -81870,7 +82222,9 @@
       <c r="AI743" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ743" s="10"/>
+      <c r="AJ743" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="14" t="s">
@@ -81948,16 +82302,16 @@
       <c r="Y744" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z744" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA744" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB744" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC744" s="16">
+      <c r="Z744" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA744" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB744" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC744" s="10">
         <v>1.0</v>
       </c>
       <c r="AD744" s="11"/>
@@ -81974,7 +82328,9 @@
       <c r="AI744" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ744" s="10"/>
+      <c r="AJ744" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="14" t="s">
@@ -82052,16 +82408,16 @@
       <c r="Y745" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z745" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA745" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB745" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC745" s="16">
+      <c r="Z745" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA745" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB745" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC745" s="10">
         <v>1.0</v>
       </c>
       <c r="AD745" s="11"/>
@@ -82078,7 +82434,9 @@
       <c r="AI745" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ745" s="10"/>
+      <c r="AJ745" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="14" t="s">
@@ -82156,16 +82514,16 @@
       <c r="Y746" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z746" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA746" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB746" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AC746" s="16">
+      <c r="Z746" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA746" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB746" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC746" s="10">
         <v>0.0</v>
       </c>
       <c r="AD746" s="11"/>
@@ -82182,7 +82540,9 @@
       <c r="AI746" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ746" s="10"/>
+      <c r="AJ746" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="14" t="s">
@@ -82260,16 +82620,16 @@
       <c r="Y747" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z747" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA747" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB747" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC747" s="16">
+      <c r="Z747" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA747" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB747" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC747" s="10">
         <v>0.0</v>
       </c>
       <c r="AD747" s="11"/>
@@ -82286,7 +82646,9 @@
       <c r="AI747" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ747" s="10"/>
+      <c r="AJ747" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="14" t="s">
@@ -82364,16 +82726,16 @@
       <c r="Y748" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z748" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA748" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB748" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC748" s="16">
+      <c r="Z748" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA748" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB748" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC748" s="10">
         <v>1.0</v>
       </c>
       <c r="AD748" s="11"/>
@@ -82390,7 +82752,9 @@
       <c r="AI748" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ748" s="10"/>
+      <c r="AJ748" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="14" t="s">
@@ -82468,16 +82832,16 @@
       <c r="Y749" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z749" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA749" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB749" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC749" s="16">
+      <c r="Z749" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA749" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB749" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC749" s="10">
         <v>2.0</v>
       </c>
       <c r="AD749" s="11"/>
@@ -82494,7 +82858,9 @@
       <c r="AI749" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ749" s="10"/>
+      <c r="AJ749" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="14" t="s">
@@ -82572,16 +82938,16 @@
       <c r="Y750" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z750" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA750" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB750" s="16">
+      <c r="Z750" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA750" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB750" s="10">
         <v>4.0</v>
       </c>
-      <c r="AC750" s="16">
+      <c r="AC750" s="10">
         <v>0.0</v>
       </c>
       <c r="AD750" s="11"/>
@@ -82598,7 +82964,9 @@
       <c r="AI750" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ750" s="10"/>
+      <c r="AJ750" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="14" t="s">
@@ -82676,16 +83044,16 @@
       <c r="Y751" s="14">
         <v>37.0</v>
       </c>
-      <c r="Z751" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA751" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB751" s="16">
+      <c r="Z751" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA751" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB751" s="10">
         <v>5.0</v>
       </c>
-      <c r="AC751" s="16">
+      <c r="AC751" s="10">
         <v>3.0</v>
       </c>
       <c r="AD751" s="11"/>
@@ -82702,7 +83070,9 @@
       <c r="AI751" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ751" s="10"/>
+      <c r="AJ751" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="14" t="s">
@@ -82780,16 +83150,16 @@
       <c r="Y752" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z752" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA752" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB752" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AC752" s="16">
+      <c r="Z752" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA752" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB752" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC752" s="10">
         <v>0.0</v>
       </c>
       <c r="AD752" s="11"/>
@@ -82806,7 +83176,9 @@
       <c r="AI752" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ752" s="10"/>
+      <c r="AJ752" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="14" t="s">
@@ -82884,16 +83256,16 @@
       <c r="Y753" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z753" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA753" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB753" s="16">
+      <c r="Z753" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA753" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB753" s="10">
         <v>7.0</v>
       </c>
-      <c r="AC753" s="16">
+      <c r="AC753" s="10">
         <v>1.0</v>
       </c>
       <c r="AD753" s="11"/>
@@ -82910,7 +83282,9 @@
       <c r="AI753" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ753" s="10"/>
+      <c r="AJ753" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="14" t="s">
@@ -82988,16 +83362,16 @@
       <c r="Y754" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z754" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AA754" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB754" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC754" s="16">
+      <c r="Z754" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AA754" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB754" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC754" s="10">
         <v>1.0</v>
       </c>
       <c r="AD754" s="11"/>
@@ -83014,7 +83388,9 @@
       <c r="AI754" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ754" s="10"/>
+      <c r="AJ754" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="14" t="s">
@@ -83092,16 +83468,16 @@
       <c r="Y755" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z755" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA755" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB755" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC755" s="16">
+      <c r="Z755" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA755" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB755" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC755" s="10">
         <v>1.0</v>
       </c>
       <c r="AD755" s="11"/>
@@ -83118,7 +83494,9 @@
       <c r="AI755" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ755" s="10"/>
+      <c r="AJ755" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="14" t="s">
@@ -83196,16 +83574,16 @@
       <c r="Y756" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z756" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AA756" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB756" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AC756" s="16">
+      <c r="Z756" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AA756" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB756" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AC756" s="10">
         <v>2.0</v>
       </c>
       <c r="AD756" s="11"/>
@@ -83222,7 +83600,9 @@
       <c r="AI756" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ756" s="10"/>
+      <c r="AJ756" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="14" t="s">
@@ -83300,16 +83680,16 @@
       <c r="Y757" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z757" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA757" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AB757" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC757" s="16">
+      <c r="Z757" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA757" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AB757" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC757" s="10">
         <v>0.0</v>
       </c>
       <c r="AD757" s="11"/>
@@ -83326,7 +83706,9 @@
       <c r="AI757" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ757" s="10"/>
+      <c r="AJ757" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="14" t="s">
@@ -83404,16 +83786,16 @@
       <c r="Y758" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z758" s="16">
+      <c r="Z758" s="10">
         <v>5.0</v>
       </c>
-      <c r="AA758" s="16">
+      <c r="AA758" s="10">
         <v>4.0</v>
       </c>
-      <c r="AB758" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="AC758" s="16">
+      <c r="AB758" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="AC758" s="10">
         <v>0.0</v>
       </c>
       <c r="AD758" s="11"/>
@@ -83430,7 +83812,9 @@
       <c r="AI758" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ758" s="10"/>
+      <c r="AJ758" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="14" t="s">
@@ -83508,16 +83892,16 @@
       <c r="Y759" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z759" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA759" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB759" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AC759" s="16">
+      <c r="Z759" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA759" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB759" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC759" s="10">
         <v>0.0</v>
       </c>
       <c r="AD759" s="11"/>
@@ -83534,7 +83918,9 @@
       <c r="AI759" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ759" s="10"/>
+      <c r="AJ759" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="14" t="s">
@@ -83612,16 +83998,16 @@
       <c r="Y760" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z760" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="AA760" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AB760" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="AC760" s="16">
+      <c r="Z760" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AA760" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AB760" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AC760" s="10">
         <v>0.0</v>
       </c>
       <c r="AD760" s="11"/>
@@ -83638,7 +84024,9 @@
       <c r="AI760" s="16">
         <v>0.0</v>
       </c>
-      <c r="AJ760" s="10"/>
+      <c r="AJ760" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="14" t="s">
@@ -83716,16 +84104,16 @@
       <c r="Y761" s="14">
         <v>38.0</v>
       </c>
-      <c r="Z761" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AA761" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="AB761" s="16">
+      <c r="Z761" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AA761" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AB761" s="10">
         <v>4.0</v>
       </c>
-      <c r="AC761" s="16">
+      <c r="AC761" s="10">
         <v>2.0</v>
       </c>
       <c r="AD761" s="11"/>
@@ -83742,7 +84130,9 @@
       <c r="AI761" s="16">
         <v>1.0</v>
       </c>
-      <c r="AJ761" s="10"/>
+      <c r="AJ761" s="16" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="22"/>
